--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Epo-Epor.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Epo-Epor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Epor</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1867706666666667</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H2">
-        <v>0.560312</v>
+        <v>0.221459</v>
       </c>
       <c r="I2">
-        <v>0.443921894237458</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J2">
-        <v>0.4439218942374579</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9868143333333332</v>
+        <v>1.374029666666667</v>
       </c>
       <c r="N2">
-        <v>2.960443</v>
+        <v>4.122089</v>
       </c>
       <c r="O2">
-        <v>0.5517614585197113</v>
+        <v>0.4703393650030796</v>
       </c>
       <c r="P2">
-        <v>0.5517614585197113</v>
+        <v>0.4703393650030795</v>
       </c>
       <c r="Q2">
-        <v>0.1843079709128889</v>
+        <v>0.1014304119834444</v>
       </c>
       <c r="R2">
-        <v>1.658771738216</v>
+        <v>0.912873707851</v>
       </c>
       <c r="S2">
-        <v>0.2449389918332928</v>
+        <v>0.06042172183865692</v>
       </c>
       <c r="T2">
-        <v>0.2449389918332928</v>
+        <v>0.06042172183865691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1867706666666667</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H3">
-        <v>0.560312</v>
+        <v>0.221459</v>
       </c>
       <c r="I3">
-        <v>0.443921894237458</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J3">
-        <v>0.4439218942374579</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +626,22 @@
         <v>1.098371</v>
       </c>
       <c r="O3">
-        <v>0.2047121950855848</v>
+        <v>0.1253265319302416</v>
       </c>
       <c r="P3">
-        <v>0.2047121950855848</v>
+        <v>0.1253265319302416</v>
       </c>
       <c r="Q3">
-        <v>0.06838116130577779</v>
+        <v>0.02702712703211111</v>
       </c>
       <c r="R3">
-        <v>0.6154304517520002</v>
+        <v>0.243244143289</v>
       </c>
       <c r="S3">
-        <v>0.09087622541590085</v>
+        <v>0.01609995976254939</v>
       </c>
       <c r="T3">
-        <v>0.09087622541590082</v>
+        <v>0.01609995976254939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +655,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1867706666666667</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H4">
-        <v>0.560312</v>
+        <v>0.221459</v>
       </c>
       <c r="I4">
-        <v>0.443921894237458</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J4">
-        <v>0.4439218942374579</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.342251</v>
+        <v>0.5727720000000001</v>
       </c>
       <c r="N4">
-        <v>1.026753</v>
+        <v>1.718316</v>
       </c>
       <c r="O4">
-        <v>0.1913641751655037</v>
+        <v>0.1960636115121803</v>
       </c>
       <c r="P4">
-        <v>0.1913641751655037</v>
+        <v>0.1960636115121803</v>
       </c>
       <c r="Q4">
-        <v>0.06392244743733334</v>
+        <v>0.042281838116</v>
       </c>
       <c r="R4">
-        <v>0.5753020269360001</v>
+        <v>0.380536543044</v>
       </c>
       <c r="S4">
-        <v>0.0849507471286591</v>
+        <v>0.02518713481996959</v>
       </c>
       <c r="T4">
-        <v>0.08495074712865908</v>
+        <v>0.02518713481996959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.07381966666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.221459</v>
+      </c>
+      <c r="I5">
+        <v>0.1284640970637474</v>
+      </c>
+      <c r="J5">
+        <v>0.1284640970637474</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.1867706666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.560312</v>
-      </c>
-      <c r="I5">
-        <v>0.443921894237458</v>
-      </c>
-      <c r="J5">
-        <v>0.4439218942374579</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.093291</v>
+        <v>0.4303706666666667</v>
       </c>
       <c r="N5">
-        <v>0.279873</v>
+        <v>1.291112</v>
       </c>
       <c r="O5">
-        <v>0.05216217122920021</v>
+        <v>0.1473187013254338</v>
       </c>
       <c r="P5">
-        <v>0.05216217122920021</v>
+        <v>0.1473187013254338</v>
       </c>
       <c r="Q5">
-        <v>0.017424022264</v>
+        <v>0.03176981915644444</v>
       </c>
       <c r="R5">
-        <v>0.156816200376</v>
+        <v>0.285928372408</v>
       </c>
       <c r="S5">
-        <v>0.02315592985960519</v>
+        <v>0.01892516394637574</v>
       </c>
       <c r="T5">
-        <v>0.02315592985960518</v>
+        <v>0.01892516394637574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1698756666666666</v>
+        <v>0.07381966666666666</v>
       </c>
       <c r="H6">
-        <v>0.5096269999999999</v>
+        <v>0.221459</v>
       </c>
       <c r="I6">
-        <v>0.4037653721400808</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="J6">
-        <v>0.4037653721400807</v>
+        <v>0.1284640970637474</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.9868143333333332</v>
+        <v>0.178062</v>
       </c>
       <c r="N6">
-        <v>2.960443</v>
+        <v>0.534186</v>
       </c>
       <c r="O6">
-        <v>0.5517614585197113</v>
+        <v>0.06095179022906471</v>
       </c>
       <c r="P6">
-        <v>0.5517614585197113</v>
+        <v>0.0609517902290647</v>
       </c>
       <c r="Q6">
-        <v>0.1676357427512222</v>
+        <v>0.013144477486</v>
       </c>
       <c r="R6">
-        <v>1.508721684761</v>
+        <v>0.118300297374</v>
       </c>
       <c r="S6">
-        <v>0.222782170631765</v>
+        <v>0.007830116696195738</v>
       </c>
       <c r="T6">
-        <v>0.2227821706317649</v>
+        <v>0.007830116696195736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,46 +850,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1698756666666666</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H7">
-        <v>0.5096269999999999</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I7">
-        <v>0.4037653721400808</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J7">
-        <v>0.4037653721400807</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3661236666666667</v>
+        <v>1.374029666666667</v>
       </c>
       <c r="N7">
-        <v>1.098371</v>
+        <v>4.122089</v>
       </c>
       <c r="O7">
-        <v>0.2047121950855848</v>
+        <v>0.4703393650030796</v>
       </c>
       <c r="P7">
-        <v>0.2047121950855848</v>
+        <v>0.4703393650030795</v>
       </c>
       <c r="Q7">
-        <v>0.06219550195744445</v>
+        <v>0.2334142056447778</v>
       </c>
       <c r="R7">
-        <v>0.559759517617</v>
+        <v>2.100727850803</v>
       </c>
       <c r="S7">
-        <v>0.08265569563034397</v>
+        <v>0.1390439803099861</v>
       </c>
       <c r="T7">
-        <v>0.08265569563034396</v>
+        <v>0.1390439803099861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,46 +912,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1698756666666666</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H8">
-        <v>0.5096269999999999</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I8">
-        <v>0.4037653721400808</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J8">
-        <v>0.4037653721400807</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.342251</v>
+        <v>0.3661236666666667</v>
       </c>
       <c r="N8">
-        <v>1.026753</v>
+        <v>1.098371</v>
       </c>
       <c r="O8">
-        <v>0.1913641751655037</v>
+        <v>0.1253265319302416</v>
       </c>
       <c r="P8">
-        <v>0.1913641751655037</v>
+        <v>0.1253265319302416</v>
       </c>
       <c r="Q8">
-        <v>0.05814011679233333</v>
+        <v>0.06219550195744445</v>
       </c>
       <c r="R8">
-        <v>0.523261051131</v>
+        <v>0.559759517617</v>
       </c>
       <c r="S8">
-        <v>0.0772662273999792</v>
+        <v>0.03704963082967393</v>
       </c>
       <c r="T8">
-        <v>0.07726622739997918</v>
+        <v>0.03704963082967393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,61 +974,61 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1698756666666666</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H9">
-        <v>0.5096269999999999</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I9">
-        <v>0.4037653721400808</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J9">
-        <v>0.4037653721400807</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.093291</v>
+        <v>0.5727720000000001</v>
       </c>
       <c r="N9">
-        <v>0.279873</v>
+        <v>1.718316</v>
       </c>
       <c r="O9">
-        <v>0.05216217122920021</v>
+        <v>0.1960636115121803</v>
       </c>
       <c r="P9">
-        <v>0.05216217122920021</v>
+        <v>0.1960636115121803</v>
       </c>
       <c r="Q9">
-        <v>0.015847870819</v>
+        <v>0.09730002534800002</v>
       </c>
       <c r="R9">
-        <v>0.142630837371</v>
+        <v>0.8757002281320002</v>
       </c>
       <c r="S9">
-        <v>0.02106127847799264</v>
+        <v>0.0579612657733334</v>
       </c>
       <c r="T9">
-        <v>0.02106127847799263</v>
+        <v>0.0579612657733334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>2</v>
       </c>
@@ -1033,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.01336833333333333</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H10">
-        <v>0.040105</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I10">
-        <v>0.03177423929595163</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J10">
-        <v>0.03177423929595163</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9868143333333332</v>
+        <v>0.4303706666666667</v>
       </c>
       <c r="N10">
-        <v>2.960443</v>
+        <v>1.291112</v>
       </c>
       <c r="O10">
-        <v>0.5517614585197113</v>
+        <v>0.1473187013254338</v>
       </c>
       <c r="P10">
-        <v>0.5517614585197113</v>
+        <v>0.1473187013254338</v>
       </c>
       <c r="Q10">
-        <v>0.01319206294611111</v>
+        <v>0.07310950391377778</v>
       </c>
       <c r="R10">
-        <v>0.118728566515</v>
+        <v>0.6579855352240001</v>
       </c>
       <c r="S10">
-        <v>0.0175318006172886</v>
+        <v>0.04355106148993552</v>
       </c>
       <c r="T10">
-        <v>0.01753180061728859</v>
+        <v>0.04355106148993552</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1095,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.01336833333333333</v>
+        <v>0.1698756666666667</v>
       </c>
       <c r="H11">
-        <v>0.040105</v>
+        <v>0.5096270000000001</v>
       </c>
       <c r="I11">
-        <v>0.03177423929595163</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="J11">
-        <v>0.03177423929595163</v>
+        <v>0.2956247991470493</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3661236666666667</v>
+        <v>0.178062</v>
       </c>
       <c r="N11">
-        <v>1.098371</v>
+        <v>0.534186</v>
       </c>
       <c r="O11">
-        <v>0.2047121950855848</v>
+        <v>0.06095179022906471</v>
       </c>
       <c r="P11">
-        <v>0.2047121950855848</v>
+        <v>0.0609517902290647</v>
       </c>
       <c r="Q11">
-        <v>0.004894463217222224</v>
+        <v>0.03024840095800001</v>
       </c>
       <c r="R11">
-        <v>0.04405016895500001</v>
+        <v>0.2722356086220001</v>
       </c>
       <c r="S11">
-        <v>0.006504574273448906</v>
+        <v>0.01801886074412034</v>
       </c>
       <c r="T11">
-        <v>0.006504574273448904</v>
+        <v>0.01801886074412034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01336833333333333</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H12">
-        <v>0.040105</v>
+        <v>0.221693</v>
       </c>
       <c r="I12">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J12">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.342251</v>
+        <v>1.374029666666667</v>
       </c>
       <c r="N12">
-        <v>1.026753</v>
+        <v>4.122089</v>
       </c>
       <c r="O12">
-        <v>0.1913641751655037</v>
+        <v>0.4703393650030796</v>
       </c>
       <c r="P12">
-        <v>0.1913641751655037</v>
+        <v>0.4703393650030795</v>
       </c>
       <c r="Q12">
-        <v>0.004575325451666667</v>
+        <v>0.1015375862974444</v>
       </c>
       <c r="R12">
-        <v>0.041177929065</v>
+        <v>0.913838276677</v>
       </c>
       <c r="S12">
-        <v>0.006080451094381118</v>
+        <v>0.06048556518171477</v>
       </c>
       <c r="T12">
-        <v>0.006080451094381117</v>
+        <v>0.06048556518171476</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1213,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,51 +1222,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01336833333333333</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H13">
-        <v>0.040105</v>
+        <v>0.221693</v>
       </c>
       <c r="I13">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J13">
-        <v>0.03177423929595163</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.093291</v>
+        <v>0.3661236666666667</v>
       </c>
       <c r="N13">
-        <v>0.279873</v>
+        <v>1.098371</v>
       </c>
       <c r="O13">
-        <v>0.05216217122920021</v>
+        <v>0.1253265319302416</v>
       </c>
       <c r="P13">
-        <v>0.05216217122920021</v>
+        <v>0.1253265319302416</v>
       </c>
       <c r="Q13">
-        <v>0.001247145185</v>
+        <v>0.02705568467811111</v>
       </c>
       <c r="R13">
-        <v>0.011224306665</v>
+        <v>0.243501162103</v>
       </c>
       <c r="S13">
-        <v>0.001657413310833011</v>
+        <v>0.01611697144680894</v>
       </c>
       <c r="T13">
-        <v>0.001657413310833011</v>
+        <v>0.01611697144680894</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1272,60 +1275,60 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.050714</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H14">
-        <v>0.152142</v>
+        <v>0.221693</v>
       </c>
       <c r="I14">
-        <v>0.1205384943265097</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J14">
-        <v>0.1205384943265097</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.9868143333333332</v>
+        <v>0.5727720000000001</v>
       </c>
       <c r="N14">
-        <v>2.960443</v>
+        <v>1.718316</v>
       </c>
       <c r="O14">
-        <v>0.5517614585197113</v>
+        <v>0.1960636115121803</v>
       </c>
       <c r="P14">
-        <v>0.5517614585197113</v>
+        <v>0.1960636115121803</v>
       </c>
       <c r="Q14">
-        <v>0.05004530210066666</v>
+        <v>0.04232651433200001</v>
       </c>
       <c r="R14">
-        <v>0.450407718906</v>
+        <v>0.380938628988</v>
       </c>
       <c r="S14">
-        <v>0.06650849543736496</v>
+        <v>0.02521374827685268</v>
       </c>
       <c r="T14">
-        <v>0.06650849543736494</v>
+        <v>0.02521374827685268</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1334,117 +1337,117 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.050714</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H15">
-        <v>0.152142</v>
+        <v>0.221693</v>
       </c>
       <c r="I15">
-        <v>0.1205384943265097</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J15">
-        <v>0.1205384943265097</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3661236666666667</v>
+        <v>0.4303706666666667</v>
       </c>
       <c r="N15">
-        <v>1.098371</v>
+        <v>1.291112</v>
       </c>
       <c r="O15">
-        <v>0.2047121950855848</v>
+        <v>0.1473187013254338</v>
       </c>
       <c r="P15">
-        <v>0.2047121950855848</v>
+        <v>0.1473187013254338</v>
       </c>
       <c r="Q15">
-        <v>0.01856759563133334</v>
+        <v>0.03180338806844445</v>
       </c>
       <c r="R15">
-        <v>0.167108360682</v>
+        <v>0.286230492616</v>
       </c>
       <c r="S15">
-        <v>0.02467569976589112</v>
+        <v>0.01894516082328502</v>
       </c>
       <c r="T15">
-        <v>0.02467569976589111</v>
+        <v>0.01894516082328502</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.050714</v>
+        <v>0.07389766666666667</v>
       </c>
       <c r="H16">
-        <v>0.152142</v>
+        <v>0.221693</v>
       </c>
       <c r="I16">
-        <v>0.1205384943265097</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="J16">
-        <v>0.1205384943265097</v>
+        <v>0.1285998359531712</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.342251</v>
+        <v>0.178062</v>
       </c>
       <c r="N16">
-        <v>1.026753</v>
+        <v>0.534186</v>
       </c>
       <c r="O16">
-        <v>0.1913641751655037</v>
+        <v>0.06095179022906471</v>
       </c>
       <c r="P16">
-        <v>0.1913641751655037</v>
+        <v>0.0609517902290647</v>
       </c>
       <c r="Q16">
-        <v>0.017356917214</v>
+        <v>0.013158366322</v>
       </c>
       <c r="R16">
-        <v>0.156212254926</v>
+        <v>0.118425296898</v>
       </c>
       <c r="S16">
-        <v>0.02306674954248428</v>
+        <v>0.007838390224509826</v>
       </c>
       <c r="T16">
-        <v>0.02306674954248427</v>
+        <v>0.007838390224509826</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,55 +1461,303 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2570396666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.771119</v>
+      </c>
+      <c r="I17">
+        <v>0.447311267836032</v>
+      </c>
+      <c r="J17">
+        <v>0.447311267836032</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.374029666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.122089</v>
+      </c>
+      <c r="O17">
+        <v>0.4703393650030796</v>
+      </c>
+      <c r="P17">
+        <v>0.4703393650030795</v>
+      </c>
+      <c r="Q17">
+        <v>0.3531801275101111</v>
+      </c>
+      <c r="R17">
+        <v>3.178621147591</v>
+      </c>
+      <c r="S17">
+        <v>0.2103880976727218</v>
+      </c>
+      <c r="T17">
+        <v>0.2103880976727217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.050714</v>
-      </c>
-      <c r="H17">
-        <v>0.152142</v>
-      </c>
-      <c r="I17">
-        <v>0.1205384943265097</v>
-      </c>
-      <c r="J17">
-        <v>0.1205384943265097</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.093291</v>
-      </c>
-      <c r="N17">
-        <v>0.279873</v>
-      </c>
-      <c r="O17">
-        <v>0.05216217122920021</v>
-      </c>
-      <c r="P17">
-        <v>0.05216217122920021</v>
-      </c>
-      <c r="Q17">
-        <v>0.004731159774</v>
-      </c>
-      <c r="R17">
-        <v>0.04258043796599999</v>
-      </c>
-      <c r="S17">
-        <v>0.00628754958076938</v>
-      </c>
-      <c r="T17">
-        <v>0.006287549580769378</v>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2570396666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.771119</v>
+      </c>
+      <c r="I18">
+        <v>0.447311267836032</v>
+      </c>
+      <c r="J18">
+        <v>0.447311267836032</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3661236666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.098371</v>
+      </c>
+      <c r="O18">
+        <v>0.1253265319302416</v>
+      </c>
+      <c r="P18">
+        <v>0.1253265319302416</v>
+      </c>
+      <c r="Q18">
+        <v>0.09410830523877778</v>
+      </c>
+      <c r="R18">
+        <v>0.846974747149</v>
+      </c>
+      <c r="S18">
+        <v>0.05605996989120931</v>
+      </c>
+      <c r="T18">
+        <v>0.05605996989120931</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2570396666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.771119</v>
+      </c>
+      <c r="I19">
+        <v>0.447311267836032</v>
+      </c>
+      <c r="J19">
+        <v>0.447311267836032</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.5727720000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.718316</v>
+      </c>
+      <c r="O19">
+        <v>0.1960636115121803</v>
+      </c>
+      <c r="P19">
+        <v>0.1960636115121803</v>
+      </c>
+      <c r="Q19">
+        <v>0.147225123956</v>
+      </c>
+      <c r="R19">
+        <v>1.325026115604</v>
+      </c>
+      <c r="S19">
+        <v>0.08770146264202461</v>
+      </c>
+      <c r="T19">
+        <v>0.08770146264202461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2570396666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.771119</v>
+      </c>
+      <c r="I20">
+        <v>0.447311267836032</v>
+      </c>
+      <c r="J20">
+        <v>0.447311267836032</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4303706666666667</v>
+      </c>
+      <c r="N20">
+        <v>1.291112</v>
+      </c>
+      <c r="O20">
+        <v>0.1473187013254338</v>
+      </c>
+      <c r="P20">
+        <v>0.1473187013254338</v>
+      </c>
+      <c r="Q20">
+        <v>0.1106223327031111</v>
+      </c>
+      <c r="R20">
+        <v>0.995600994328</v>
+      </c>
+      <c r="S20">
+        <v>0.06589731506583753</v>
+      </c>
+      <c r="T20">
+        <v>0.06589731506583753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2570396666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.771119</v>
+      </c>
+      <c r="I21">
+        <v>0.447311267836032</v>
+      </c>
+      <c r="J21">
+        <v>0.447311267836032</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.178062</v>
+      </c>
+      <c r="N21">
+        <v>0.534186</v>
+      </c>
+      <c r="O21">
+        <v>0.06095179022906471</v>
+      </c>
+      <c r="P21">
+        <v>0.0609517902290647</v>
+      </c>
+      <c r="Q21">
+        <v>0.04576899712600001</v>
+      </c>
+      <c r="R21">
+        <v>0.411920974134</v>
+      </c>
+      <c r="S21">
+        <v>0.0272644225642388</v>
+      </c>
+      <c r="T21">
+        <v>0.0272644225642388</v>
       </c>
     </row>
   </sheetData>
